--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Il1a-Il1rap.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Il1a-Il1rap.xlsx
@@ -534,10 +534,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>23.01683033333333</v>
+        <v>0.09179766666666667</v>
       </c>
       <c r="H2">
-        <v>69.05049100000001</v>
+        <v>0.275393</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>20.990057</v>
+        <v>1.135923333333333</v>
       </c>
       <c r="N2">
-        <v>62.97017099999999</v>
+        <v>3.40777</v>
       </c>
       <c r="O2">
-        <v>0.6163261988329278</v>
+        <v>0.06998805686568385</v>
       </c>
       <c r="P2">
-        <v>0.6163261988329277</v>
+        <v>0.06998805686568385</v>
       </c>
       <c r="Q2">
-        <v>483.1245806559956</v>
+        <v>0.1042751115122222</v>
       </c>
       <c r="R2">
-        <v>4348.121225903961</v>
+        <v>0.9384760036099999</v>
       </c>
       <c r="S2">
-        <v>0.6163261988329278</v>
+        <v>0.06998805686568385</v>
       </c>
       <c r="T2">
-        <v>0.6163261988329277</v>
+        <v>0.06998805686568385</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,10 +596,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>23.01683033333333</v>
+        <v>0.09179766666666667</v>
       </c>
       <c r="H3">
-        <v>69.05049100000001</v>
+        <v>0.275393</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>21.285915</v>
       </c>
       <c r="O3">
-        <v>0.208337802999309</v>
+        <v>0.4371656037403091</v>
       </c>
       <c r="P3">
-        <v>0.208337802999309</v>
+        <v>0.437165603740309</v>
       </c>
       <c r="Q3">
-        <v>163.3114313482517</v>
+        <v>0.6513324432883333</v>
       </c>
       <c r="R3">
-        <v>1469.802882134265</v>
+        <v>5.861991989594999</v>
       </c>
       <c r="S3">
-        <v>0.208337802999309</v>
+        <v>0.4371656037403091</v>
       </c>
       <c r="T3">
-        <v>0.208337802999309</v>
+        <v>0.437165603740309</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,10 +658,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>23.01683033333333</v>
+        <v>0.09179766666666667</v>
       </c>
       <c r="H4">
-        <v>69.05049100000001</v>
+        <v>0.275393</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.971371333333334</v>
+        <v>7.999016999999999</v>
       </c>
       <c r="N4">
-        <v>17.914114</v>
+        <v>23.997051</v>
       </c>
       <c r="O4">
-        <v>0.1753359981677632</v>
+        <v>0.4928463393940071</v>
       </c>
       <c r="P4">
-        <v>0.1753359981677632</v>
+        <v>0.4928463393940071</v>
       </c>
       <c r="Q4">
-        <v>137.4420408366638</v>
+        <v>0.734291096227</v>
       </c>
       <c r="R4">
-        <v>1236.978367529974</v>
+        <v>6.608619866043</v>
       </c>
       <c r="S4">
-        <v>0.1753359981677632</v>
+        <v>0.4928463393940071</v>
       </c>
       <c r="T4">
-        <v>0.1753359981677632</v>
+        <v>0.4928463393940071</v>
       </c>
     </row>
   </sheetData>
